--- a/outputs/resultado_optimizacion_gps_v6.xlsx
+++ b/outputs/resultado_optimizacion_gps_v6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd171dda8de17894/Desktop/cerebro-patio/Cerebro/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_DE82A616B1069A031CC2E77B5C0C1E9BA9FA2A7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E42C3FA2-3438-427C-B961-4817BC6AE18F}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_DE82A616B1069A031CC2E77B5C0C1E9BA9FA2A7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ADB3FE3-7EB2-40D7-9055-485EA6E0BF7B}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="2500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen_Total" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Costos_por_Ciudad!$A$1:$Q$32</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -382,7 +395,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +410,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -428,16 +451,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -738,11 +766,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -848,6 +896,36 @@
       </c>
       <c r="Q2">
         <v>2514.0379213797501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q3" s="2">
+        <f>Q2*39500</f>
+        <v>99304497.894500121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q4" s="2">
+        <f>P2*39500</f>
+        <v>49888500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q5" s="3">
+        <f>Q3-Q4</f>
+        <v>49415997.894500121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q6" s="3">
+        <f>Q5/842</f>
+        <v>58688.833603919382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q7" s="4">
+        <f>Q6/39500</f>
+        <v>1.4857932557954274</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2395,9 +2473,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.265625" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.265625" customWidth="1"/>
+    <col min="11" max="11" width="47" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -2757,7 +2849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -8717,7 +8811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
